--- a/sample_pnl.xlsx
+++ b/sample_pnl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/229fae684e65e8dd/Code/GPT Agents/Affinsight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{433273AE-BC24-476C-AA98-DBF843B7310B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{433273AE-BC24-476C-AA98-DBF843B7310B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA6F2382-C4FD-49F2-918E-6710D6AB2532}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33090" yWindow="-1080" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,15 +413,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
